--- a/biology/Zoologie/Jaguajir/Jaguajir.xlsx
+++ b/biology/Zoologie/Jaguajir/Jaguajir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaguajir est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Guyana et en Guyane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Guyana et en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (29/12/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (29/12/2020) :
 Jaguajir agamemnon (C. L. Koch, 1839)
 Jaguajir pintoi (Mello-Leitão, 1932)
 Jaguajir rochae (Borelli, 1910)</t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre vient du tupi "jaguajira" signifiant "scorpion" ou "celui qui dévore".
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Esposito, Yamaguti, Souza, Pinto da Rocha &amp; Prendini, 2017 : « Systematic revision of the neotropical club-tailed scorpions, Physoctonus, Rhopalurus, and Troglorhopalurus, revalidation of Heteroctenus, and descriptions of two new genera and three new species (Buthidae, Rhopalurusinae). » Bulletin of the American Museum of Natural History, no 415, p. 1-134 (texte intégral).</t>
         </is>
